--- a/config_debug/lwzb_freestyle_server.xlsx
+++ b/config_debug/lwzb_freestyle_server.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -18,7 +23,7 @@
     <sheet name="robot" sheetId="11" r:id="rId9"/>
     <sheet name="robot_bet" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -385,14 +390,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,12 +403,14 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -417,159 +418,23 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,194 +453,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -826,252 +505,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1156,62 +593,18 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 4" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1469,19 +862,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.125" style="13" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="13" customWidth="1"/>
@@ -1497,7 +890,7 @@
     <col min="14" max="16384" width="11" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="1:7">
+    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1520,7 +913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:13">
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1545,7 +938,7 @@
       <c r="L2" s="26"/>
       <c r="M2" s="26"/>
     </row>
-    <row r="3" ht="16.5" spans="1:13">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1570,7 +963,7 @@
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" ht="16.5" spans="1:13">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="24"/>
@@ -1581,7 +974,7 @@
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
     </row>
-    <row r="5" ht="16.5" spans="1:13">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="24"/>
@@ -1592,7 +985,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="25"/>
@@ -1601,7 +994,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" ht="16.5" spans="1:13">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1612,7 +1005,7 @@
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
     </row>
-    <row r="8" ht="16.5" spans="1:13">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1623,7 +1016,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" ht="16.5" spans="1:13">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1634,7 +1027,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
     </row>
-    <row r="10" ht="16.5" spans="1:13">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1645,7 +1038,7 @@
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
     </row>
-    <row r="11" ht="16.5" spans="1:13">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1656,7 +1049,7 @@
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" ht="16.5" spans="1:13">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1667,7 +1060,7 @@
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" ht="16.5" spans="1:13">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1678,7 +1071,7 @@
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" ht="16.5" spans="1:11">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1688,7 +1081,7 @@
       <c r="G14" s="5"/>
       <c r="K14" s="26"/>
     </row>
-    <row r="15" ht="16.5" spans="1:11">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="24"/>
@@ -1698,7 +1091,7 @@
       <c r="G15" s="5"/>
       <c r="K15" s="26"/>
     </row>
-    <row r="16" ht="16.5" spans="1:11">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="24"/>
@@ -1708,7 +1101,7 @@
       <c r="G16" s="5"/>
       <c r="K16" s="26"/>
     </row>
-    <row r="17" ht="16.5" spans="1:11">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="24"/>
@@ -1718,7 +1111,7 @@
       <c r="G17" s="5"/>
       <c r="K17" s="26"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="24"/>
@@ -1727,7 +1120,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="24"/>
@@ -1736,7 +1129,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="24"/>
@@ -1745,7 +1138,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="24"/>
@@ -1754,7 +1147,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" ht="16.5" spans="1:13">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="24"/>
@@ -1765,7 +1158,7 @@
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
     </row>
-    <row r="23" ht="16.5" spans="1:13">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="24"/>
@@ -1776,7 +1169,7 @@
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
     </row>
-    <row r="24" ht="16.5" spans="1:13">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="24"/>
@@ -1787,7 +1180,7 @@
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" ht="16.5" spans="1:13">
+    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="24"/>
@@ -1798,78 +1191,78 @@
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
     </row>
-    <row r="26" spans="6:6">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="5:6">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="C28" s="24"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="3:7">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="3:7">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C30" s="24"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="C31" s="24"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="C32" s="24"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="C33" s="24"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="C34" s="24"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="C35" s="24"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="C36" s="24"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="C37" s="24"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="C38" s="24"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="C39" s="24"/>
       <c r="F39" s="5"/>
@@ -1877,24 +1270,21 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1908,7 +1298,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1919,7 +1309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1930,7 +1320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1941,7 +1331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1954,23 +1344,21 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AA39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S$1:S$1048576"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.125" style="13" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="13" customWidth="1"/>
@@ -1988,12 +1376,12 @@
     <col min="18" max="19" width="14.875" style="8" customWidth="1"/>
     <col min="20" max="23" width="11" style="8"/>
     <col min="24" max="24" width="22.25" style="8" customWidth="1"/>
-    <col min="25" max="25" width="16.0333333333333" style="8" customWidth="1"/>
+    <col min="25" max="25" width="16" style="8" customWidth="1"/>
     <col min="26" max="27" width="11" style="8"/>
     <col min="30" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="67.5" spans="1:27">
+    <row r="1" spans="1:27" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +1464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" spans="1:27">
+    <row r="2" spans="1:27" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2102,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="17">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J2" s="17">
         <v>100</v>
@@ -2159,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="17" customFormat="1" spans="1:27">
+    <row r="3" spans="1:27" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2185,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="17">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J3" s="17">
         <v>100</v>
@@ -2242,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="1" spans="1:10">
+    <row r="4" spans="1:27" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="19"/>
@@ -2254,7 +1642,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" s="17" customFormat="1" spans="1:10">
+    <row r="5" spans="1:27" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="19"/>
@@ -2266,7 +1654,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="21"/>
@@ -2281,7 +1669,7 @@
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="21"/>
@@ -2293,7 +1681,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="21"/>
@@ -2306,7 +1694,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="21"/>
@@ -2319,7 +1707,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="21"/>
@@ -2332,7 +1720,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="21"/>
@@ -2345,7 +1733,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="21"/>
@@ -2358,7 +1746,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="21"/>
@@ -2371,7 +1759,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="21"/>
@@ -2384,7 +1772,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="21"/>
@@ -2397,7 +1785,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="21"/>
@@ -2410,7 +1798,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="21"/>
@@ -2423,7 +1811,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="21"/>
@@ -2436,7 +1824,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="21"/>
@@ -2449,7 +1837,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="21"/>
@@ -2462,7 +1850,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="21"/>
@@ -2475,7 +1863,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="21"/>
@@ -2488,7 +1876,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="21"/>
@@ -2501,7 +1889,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="21"/>
@@ -2514,7 +1902,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="21"/>
@@ -2527,7 +1915,7 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="3:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C26" s="21"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -2538,7 +1926,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="3:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C27" s="21"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -2549,7 +1937,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="3:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
       <c r="E28" s="5"/>
@@ -2560,7 +1948,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="3:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="E29" s="5"/>
@@ -2571,7 +1959,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="3:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C30" s="21"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -2582,7 +1970,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="3:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C31" s="21"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -2593,11 +1981,11 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" s="5" customFormat="1" spans="1:4">
+    <row r="32" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="13"/>
@@ -2610,7 +1998,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="13"/>
@@ -2623,7 +2011,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="13"/>
@@ -2636,12 +2024,12 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" s="5" customFormat="1" spans="1:4">
+    <row r="36" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="13"/>
@@ -2649,7 +2037,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="13"/>
@@ -2657,7 +2045,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="13"/>
@@ -2667,22 +2055,21 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.125" style="13" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="13" customWidth="1"/>
@@ -2694,7 +2081,7 @@
     <col min="10" max="10" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:6">
+    <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>39</v>
       </c>
@@ -2710,7 +2097,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2718,14 +2105,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="8">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2733,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="8">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>44</v>
@@ -2743,7 +2130,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2761,7 +2148,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2769,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="8">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>46</v>
@@ -2777,7 +2164,7 @@
       <c r="E5" s="11"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2792,7 +2179,7 @@
       </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2807,7 +2194,7 @@
       </c>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2822,7 +2209,7 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2830,126 +2217,126 @@
         <v>2</v>
       </c>
       <c r="C9" s="8">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -2958,22 +2345,21 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="4" width="42" customWidth="1"/>
@@ -2981,7 +2367,7 @@
     <col min="6" max="6" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3001,7 +2387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3021,7 +2407,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3041,7 +2427,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -3061,7 +2447,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -3081,7 +2467,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -3101,7 +2487,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -3121,7 +2507,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3141,7 +2527,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3161,7 +2547,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -3181,7 +2567,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3201,7 +2587,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -3221,7 +2607,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -3241,7 +2627,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -3261,7 +2647,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -3281,7 +2667,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3301,7 +2687,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3321,7 +2707,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3341,7 +2727,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -3363,21 +2749,20 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="5"/>
     <col min="2" max="2" width="31.75" style="5" customWidth="1"/>
@@ -3389,7 +2774,7 @@
     <col min="8" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3409,7 +2794,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3429,7 +2814,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3454,29 +2839,28 @@
   <sortState ref="D2:D12">
     <sortCondition ref="D12"/>
   </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="24.125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:9">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -3495,7 +2879,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3509,7 +2893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3523,7 +2907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3537,7 +2921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3551,7 +2935,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -3565,7 +2949,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -3579,7 +2963,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -3593,7 +2977,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -3607,7 +2991,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -3621,7 +3005,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -3635,77 +3019,76 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:4">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3719,7 +3102,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3733,7 +3116,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3747,7 +3130,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3761,7 +3144,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3775,7 +3158,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3789,7 +3172,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3803,7 +3186,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3817,7 +3200,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3831,7 +3214,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3845,7 +3228,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3859,7 +3242,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3873,7 +3256,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3887,7 +3270,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3901,7 +3284,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3915,7 +3298,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3929,7 +3312,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3943,7 +3326,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3957,7 +3340,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3971,7 +3354,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3985,7 +3368,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3999,7 +3382,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4013,7 +3396,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4027,7 +3410,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4041,7 +3424,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4055,7 +3438,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4069,7 +3452,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4085,27 +3468,26 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:5">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4122,7 +3504,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4139,7 +3521,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4156,7 +3538,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4173,140 +3555,137 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="E27" s="6"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="54" spans="1:5">
+    <row r="1" spans="1:5" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
@@ -4323,7 +3702,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4340,7 +3719,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4357,7 +3736,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4374,7 +3753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4391,7 +3770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4408,7 +3787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4425,7 +3804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4442,7 +3821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4459,7 +3838,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4476,7 +3855,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4493,7 +3872,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4510,7 +3889,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4527,7 +3906,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4544,7 +3923,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4561,7 +3940,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -4580,47 +3959,12 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="7" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="12" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
@@ -4636,7 +3980,28 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="7" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="12" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="2"/>
   <pixelatorList sheetStid="5"/>
@@ -4652,8 +4017,22 @@
 </pixelators>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4662,7 +4041,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4680,7 +4059,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4689,7 +4068,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4698,7 +4077,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/config_debug/lwzb_freestyle_server.xlsx
+++ b/config_debug/lwzb_freestyle_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -599,7 +599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -686,6 +686,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -966,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1028,8 +1031,8 @@
       <c r="F2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5">
-        <v>1</v>
+      <c r="G2" s="29">
+        <v>0</v>
       </c>
       <c r="L2" s="26"/>
       <c r="M2" s="26"/>
@@ -1053,8 +1056,8 @@
       <c r="F3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5">
-        <v>1</v>
+      <c r="G3" s="29">
+        <v>0</v>
       </c>
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
@@ -2451,7 +2454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3950,18 +3953,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="7" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="12" master=""/>
-</allowEditUser>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3975,25 +3969,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="8" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="9" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="11" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="12" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="13" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="7" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="12" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4013,11 +4004,23 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="8" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="9" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="11" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="12" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="13" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4035,7 +4038,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4044,7 +4047,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4062,7 +4065,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
